--- a/pred_ohlcv/54_21/2020-01-21 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 MTL ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>16584.26319432001</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>17102.35269432</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>14360.85019432</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>14360.85019432</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>3784.453294320005</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>14799.35529432</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>14524.35529432</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>9804.779294320004</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>9804.779294320004</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>9804.779294320004</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>9804.779294320004</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>9804.779294320004</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>9804.779294320004</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>20467.95499432</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>20467.95499432</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>20467.95499432</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>20467.95499432</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>30359.20949432</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>29172.79529432</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>29172.79529432</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>29172.79529432</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>29172.79529432</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>27672.79529432</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>27672.79529432</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>28832.25589432</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>20265.95389432</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>447.9842943200001</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>447.9842943200001</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>447.9842943200001</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>447.9842943200001</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>447.9842943200001</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>447.9842943200001</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>447.9842943200001</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>8643.45239432</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>8643.45239432</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>8643.45239432</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>10207.85219432</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>10068.85229432</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>10068.85229432</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>8509.852294319999</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>7334.513694319999</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>4897.945594319999</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-35254.10335218</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-35500.78415218</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-40316.74885218</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-41017.57835218</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-60675.41925218</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-60640.57604661</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-60790.57604661</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-58519.7433455</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-66715.82224549999</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-434494.1958454999</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-434154.8559454998</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-434554.8558454998</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-434521.8572450898</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-434169.8572450898</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-434169.8572450898</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-434169.8572450898</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-434169.8572450898</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-434497.0625616299</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-436260.7930616299</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-436258.9930616299</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-437413.9909616299</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-436106.3701616299</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-434792.5004616299</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-434792.5004616299</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-437330.90046163</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-437504.30046163</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-436354.47796163</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-436354.47796163</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-501135.2909367101</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-507352.9868367101</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-479729.11533671</v>
       </c>
       <c r="H390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-477982.21543671</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-481258.85653671</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-476701.03963671</v>
       </c>
       <c r="H393">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-21 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 MTL ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>16584.26319432001</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>17102.35269432</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>14360.85019432</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>14360.85019432</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>3784.453294320005</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>14799.35529432</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>14524.35529432</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>9804.779294320004</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>9804.779294320004</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>9804.779294320004</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>9804.779294320004</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>9804.779294320004</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -808,7 +808,7 @@
         <v>20467.95499432</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>20467.95499432</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -938,7 +938,7 @@
         <v>29172.79529432</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>10207.85219432</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>10068.85229432</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-35254.10335218</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-35500.78415218</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-40316.74885218</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-41017.57835218</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-60675.41925218</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-60640.57604661</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-60790.57604661</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-58519.7433455</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-66715.82224549999</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-434494.1958454999</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-434154.8559454998</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-434554.8558454998</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-434521.8572450898</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-434169.8572450898</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-434169.8572450898</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-434169.8572450898</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-434169.8572450898</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-434497.0625616299</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-436260.7930616299</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-436258.9930616299</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-437413.9909616299</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-436106.3701616299</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-434792.5004616299</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-434792.5004616299</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-437330.90046163</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-437504.30046163</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-436354.47796163</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-436354.47796163</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-501135.2909367101</v>
       </c>
       <c r="H381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-507352.9868367101</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-504632.4092367101</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-479729.11533671</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-477982.21543671</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-481258.85653671</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-476701.03963671</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-476701.03963671</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:8">
